--- a/CPIC_ppt_HP Edits.xlsx
+++ b/CPIC_ppt_HP Edits.xlsx
@@ -9,16 +9,51 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_MTD" hidden="1">800000</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">42968.9049652778</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_QTD" hidden="1">750000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="93">
   <si>
     <t>US_RealEstate</t>
   </si>
@@ -242,16 +277,84 @@
   </si>
   <si>
     <t>Optimal Long Only Const</t>
+  </si>
+  <si>
+    <t>Peer Implied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAS </t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Expected Returns</t>
+  </si>
+  <si>
+    <t>IAS Alpha</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Cambridge Associates LLC U.S. Private Equity Index</t>
+  </si>
+  <si>
+    <t>S&amp;P 500 Index</t>
+  </si>
+  <si>
+    <t>Russell 2000 Index</t>
+  </si>
+  <si>
+    <t>MSCI EAFE(Europe, Australiasia and Far East) Index</t>
+  </si>
+  <si>
+    <t>MSCI Emerging Market Index</t>
+  </si>
+  <si>
+    <t>US Govt 10Y</t>
+  </si>
+  <si>
+    <t>USGOVT10Y</t>
+  </si>
+  <si>
+    <t>NCREIF Fund Index – Open End Diversified Core Equity (NFI-ODCE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Index</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Bloomberg Barclays US Corporate High Yield Total Return Index (Customized to include constituents with Average Life between 5 and 10 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mean Variance Efficient</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>IAS</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.00000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +452,84 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +578,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002247"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -479,12 +664,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -586,11 +798,106 @@
     <xf numFmtId="11" fontId="13" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -605,6 +912,925 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet8!$E$15:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25240000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet8!$F$15:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0299999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCF5-4535-8A98-67F6DC534CD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1687932656"/>
+        <c:axId val="1689582944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1687932656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1689582944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1689582944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687932656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66A1E36-A82A-496D-B538-BF750A5C0C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -904,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N38"/>
+  <dimension ref="B1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,6 +2719,210 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
+    <row r="39" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="71">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="F40" s="71">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G40" s="71">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="H40" s="71">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="I40" s="71">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="J40" s="34">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="71">
+        <v>0.1308</v>
+      </c>
+      <c r="F41" s="71">
+        <v>0.11</v>
+      </c>
+      <c r="G41" s="71">
+        <v>0.1182</v>
+      </c>
+      <c r="H41" s="71">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="I41" s="71">
+        <v>0.12479999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="72">
+        <f>(E40-$J$40)/E41</f>
+        <v>0.47171253822629972</v>
+      </c>
+      <c r="F42" s="72">
+        <f>(F40-$J$40)/F41</f>
+        <v>0.5281818181818182</v>
+      </c>
+      <c r="G42" s="72">
+        <f>(G40-$J$40)/G41</f>
+        <v>0.54314720812182748</v>
+      </c>
+      <c r="H42" s="72">
+        <f>(H40-$J$40)/H41</f>
+        <v>0.54995579133510175</v>
+      </c>
+      <c r="I42" s="72">
+        <f>(I40-$J$40)/I41</f>
+        <v>0.50721153846153844</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="71">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F44" s="71">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="G44" s="34">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="71">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="F45" s="71">
+        <v>0.12720000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="72">
+        <f>(E44-$J$40)/E45</f>
+        <v>0.39876215738284704</v>
+      </c>
+      <c r="F46" s="72">
+        <f>(F44-$J$40)/F45</f>
+        <v>0.38522012578616349</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="4:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="73"/>
+      <c r="F48" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="77">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="G50" s="77">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H50" s="77">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="I50" s="77">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="J50" s="77">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K50" s="77">
+        <v>6.6900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="77">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="G51" s="77">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="H51" s="77">
+        <v>0.1182</v>
+      </c>
+      <c r="I51" s="77">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="J51" s="77">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="K51" s="77">
+        <v>0.12720000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="76">
+        <v>0.47</v>
+      </c>
+      <c r="G52" s="76">
+        <v>0.53</v>
+      </c>
+      <c r="H52" s="76">
+        <v>0.54</v>
+      </c>
+      <c r="I52" s="76">
+        <v>0.51</v>
+      </c>
+      <c r="J52" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="K52" s="76">
+        <v>0.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1504,7 +2934,7 @@
   <dimension ref="B1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,10 +3971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,10 +3986,14 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2583,7 +4017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -2609,7 +4043,7 @@
         <v>6.9751229999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -2639,7 +4073,7 @@
         <v>1.3949520000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -2669,7 +4103,7 @@
         <v>1.3949509999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -2695,7 +4129,7 @@
         <v>5.7857440000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -2721,7 +4155,7 @@
         <v>6.9824659999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -2747,7 +4181,7 @@
         <v>8.1791870000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -2773,7 +4207,7 @@
         <v>5.1296799999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
@@ -2799,7 +4233,7 @@
         <v>6.2170579999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -2825,7 +4259,7 @@
         <v>7.3044349999999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -2836,7 +4270,7 @@
         <v>8.8000000000000009E-2</v>
       </c>
       <c r="D11" s="9">
-        <v>3.7699999999999997E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="E11" s="9">
         <v>7.2099999999999997E-2</v>
@@ -2851,7 +4285,7 @@
         <v>8.0299999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -2862,7 +4296,7 @@
         <v>8.8000000000000009E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>3.7699999999999997E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="E12" s="9">
         <v>8.2100000000000006E-2</v>
@@ -2876,8 +4310,11 @@
       <c r="H12" s="9">
         <v>9.0299999999999991E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -2902,8 +4339,61 @@
       <c r="H13" s="9">
         <v>8.5791129999999993E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="K13" s="60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="60">
+        <v>0.13398009999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.13398009999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.1146326</v>
+      </c>
+      <c r="G16">
+        <v>3.6826589999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.114561</v>
+      </c>
+      <c r="I16" s="59">
+        <f>SUMPRODUCT(B16:H16,B12:H12)</f>
+        <v>8.2102243882999998E-2</v>
+      </c>
+      <c r="K16" s="60">
+        <v>0.1146326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K17" s="60">
+        <v>3.6826589999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K18" s="60">
+        <v>0.114561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>66</v>
       </c>
@@ -2929,40 +4419,40 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="9">
-        <f>B6</f>
+        <f t="shared" ref="B21:H21" si="0">B6</f>
         <v>3.1414600000000001E-2</v>
       </c>
       <c r="C21" s="9">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>6.0487180000000002E-2</v>
       </c>
       <c r="D21" s="9">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>4.1098519999999999E-2</v>
       </c>
       <c r="E21" s="9">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>6.6957660000000002E-2</v>
       </c>
       <c r="F21" s="9">
-        <f>F6</f>
+        <f t="shared" si="0"/>
         <v>7.1619769999999999E-2</v>
       </c>
       <c r="G21" s="9">
-        <f>G6</f>
+        <f t="shared" si="0"/>
         <v>7.0979100000000003E-2</v>
       </c>
       <c r="H21" s="9">
-        <f>H6</f>
+        <f t="shared" si="0"/>
         <v>6.9824659999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>64</v>
       </c>
@@ -2971,31 +4461,31 @@
         <v>3.2238989999999995E-2</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" ref="C22:H22" si="0">C3</f>
+        <f t="shared" ref="C22:H22" si="1">C3</f>
         <v>5.8341539999999997E-2</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7423909999999993E-2</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8270579999999997E-2</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8948439999999995E-2</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2095350000000002E-2</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3700750000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>65</v>
       </c>
@@ -3004,31 +4494,69 @@
         <v>3.4227010000000002E-2</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" ref="C23:H23" si="1">C9</f>
+        <f t="shared" ref="C23:H23" si="2">C9</f>
         <v>5.0123830000000001E-2</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3258970000000001E-2</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7112429999999999E-2</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3676440000000001E-2</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.840244E-2</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2170579999999996E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="7">
+        <v>3.1414600000000001E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7">
+        <v>4.42764E-2</v>
+      </c>
+      <c r="P24" s="34">
+        <f>M24+N24</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q24" s="60">
+        <f>(P24+L24)/2</f>
+        <v>5.0707300000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>7</v>
@@ -3051,8 +4579,29 @@
       <c r="H25" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="7">
+        <v>6.0487180000000002E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7">
+        <v>6.9658120000000004E-2</v>
+      </c>
+      <c r="P25" s="34">
+        <f t="shared" ref="P25:P30" si="3">M25+N25</f>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="Q25" s="60">
+        <f t="shared" ref="Q25:Q30" si="4">(P25+L25)/2</f>
+        <v>7.4243589999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>13</v>
       </c>
@@ -3081,8 +4630,31 @@
         <f>SUMPRODUCT(B26:H26,B21:H21)</f>
         <v>6.00094615848989E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7">
+        <v>4.1098519999999999E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="O26" s="7">
+        <v>4.5439400000000005E-2</v>
+      </c>
+      <c r="P26" s="34">
+        <f t="shared" si="3"/>
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="Q26" s="60">
+        <f t="shared" si="4"/>
+        <v>4.8149259999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>12</v>
       </c>
@@ -3111,8 +4683,31 @@
         <f>SUMPRODUCT(B27:H27,B22:H22)</f>
         <v>6.3002757956747993E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7">
+        <v>6.6957660000000002E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="O27" s="7">
+        <v>7.1732879999999999E-2</v>
+      </c>
+      <c r="P27" s="34">
+        <f t="shared" si="3"/>
+        <v>8.2099999999999992E-2</v>
+      </c>
+      <c r="Q27" s="60">
+        <f t="shared" si="4"/>
+        <v>7.452882999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>14</v>
       </c>
@@ -3141,8 +4736,56 @@
         <f>SUMPRODUCT(B28:H28,B23:H23)</f>
         <v>4.8333108516305207E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="7">
+        <v>7.1619769999999999E-2</v>
+      </c>
+      <c r="M28" s="7">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="O28" s="7">
+        <v>7.7726210000000004E-2</v>
+      </c>
+      <c r="P28" s="34">
+        <f t="shared" si="3"/>
+        <v>9.06E-2</v>
+      </c>
+      <c r="Q28" s="60">
+        <f t="shared" si="4"/>
+        <v>8.1109884999999993E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" s="7">
+        <v>7.0979100000000003E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="O29" s="7">
+        <v>7.4039900000000006E-2</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="3"/>
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="Q29" s="60">
+        <f t="shared" si="4"/>
+        <v>7.5839550000000006E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
@@ -3152,8 +4795,31 @@
       <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="7">
+        <v>6.9824659999999997E-2</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="O30" s="7">
+        <v>7.6345479999999993E-2</v>
+      </c>
+      <c r="P30" s="34">
+        <f t="shared" si="3"/>
+        <v>9.0299999999999991E-2</v>
+      </c>
+      <c r="Q30" s="60">
+        <f t="shared" si="4"/>
+        <v>8.0062329999999987E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -3167,7 +4833,7 @@
         <v>6.1159999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3181,7 +4847,7 @@
         <v>1.2081E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -3194,8 +4860,29 @@
       <c r="D33" s="3">
         <v>9.7120000000000001E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K33" s="61">
+        <v>4.4276400000000002</v>
+      </c>
+      <c r="L33" s="61">
+        <v>6.9658119999999997</v>
+      </c>
+      <c r="M33" s="61">
+        <v>4.5439400000000001</v>
+      </c>
+      <c r="N33" s="61">
+        <v>7.1732880000000003</v>
+      </c>
+      <c r="O33" s="61">
+        <v>7.772621</v>
+      </c>
+      <c r="P33" s="61">
+        <v>7.4039900000000003</v>
+      </c>
+      <c r="Q33" s="61">
+        <v>7.6345479999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -3209,7 +4896,7 @@
         <v>1.4546999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -3222,8 +4909,15 @@
       <c r="D35" s="3">
         <v>1.8627999999999999E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M35" s="60">
+        <v>4.42764E-2</v>
+      </c>
+      <c r="O35" s="60">
+        <f>L24*0.666+P24*0.334</f>
+        <v>4.4302123600000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3236,8 +4930,15 @@
       <c r="D36" s="3">
         <v>1.6313999999999999E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M36" s="60">
+        <v>6.9658120000000004E-2</v>
+      </c>
+      <c r="O36" s="60">
+        <f t="shared" ref="O36:O41" si="5">L25*0.666+P25*0.334</f>
+        <v>6.9676461880000012E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3249,6 +4950,76 @@
       </c>
       <c r="D37" s="3">
         <v>2.1748E-2</v>
+      </c>
+      <c r="M37" s="60">
+        <v>4.5439400000000005E-2</v>
+      </c>
+      <c r="O37" s="60">
+        <f t="shared" si="5"/>
+        <v>4.5808414320000004E-2</v>
+      </c>
+      <c r="P37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M38" s="60">
+        <v>7.1732879999999999E-2</v>
+      </c>
+      <c r="O38" s="60">
+        <f t="shared" si="5"/>
+        <v>7.2015201560000006E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="M39" s="60">
+        <v>7.7726210000000004E-2</v>
+      </c>
+      <c r="O39" s="60">
+        <f t="shared" si="5"/>
+        <v>7.7959166820000009E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="44">
+        <v>5.0707300000000004E-2</v>
+      </c>
+      <c r="D40" s="44">
+        <v>7.4243589999999998E-2</v>
+      </c>
+      <c r="E40" s="44">
+        <v>4.785615E-2</v>
+      </c>
+      <c r="F40" s="44">
+        <v>7.4334250000000004E-2</v>
+      </c>
+      <c r="G40" s="44">
+        <v>8.0975520000000009E-2</v>
+      </c>
+      <c r="H40" s="44">
+        <v>7.5751550000000001E-2</v>
+      </c>
+      <c r="I40" s="44">
+        <v>7.9832029999999998E-2</v>
+      </c>
+      <c r="M40" s="60">
+        <v>7.4039900000000006E-2</v>
+      </c>
+      <c r="O40" s="60">
+        <f t="shared" si="5"/>
+        <v>7.4225880600000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M41" s="60">
+        <v>7.6345479999999993E-2</v>
+      </c>
+      <c r="O41" s="60">
+        <f t="shared" si="5"/>
+        <v>7.6663423559999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3258,838 +5029,609 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R41"/>
+  <dimension ref="F2:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+    <row r="2" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="6:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="63"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="H3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="I3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="J3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="K3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="L3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="M3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20" t="s">
+    </row>
+    <row r="4" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="G4" s="65">
+        <v>2.624E-3</v>
+      </c>
+      <c r="H4" s="65">
+        <v>1.072E-3</v>
+      </c>
+      <c r="I4" s="65">
+        <v>8.3299999999999997E-4</v>
+      </c>
+      <c r="J4" s="65">
+        <v>1.201E-3</v>
+      </c>
+      <c r="K4" s="65">
+        <v>1.578E-3</v>
+      </c>
+      <c r="L4" s="65">
+        <v>1.214E-3</v>
+      </c>
+      <c r="M4" s="65">
+        <v>1.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="G5" s="65">
+        <v>1.072E-3</v>
+      </c>
+      <c r="H5" s="65">
+        <v>5.1970000000000002E-3</v>
+      </c>
+      <c r="I5" s="65">
+        <v>1.817E-3</v>
+      </c>
+      <c r="J5" s="65">
+        <v>3.8289999999999999E-3</v>
+      </c>
+      <c r="K5" s="65">
+        <v>4.8479999999999999E-3</v>
+      </c>
+      <c r="L5" s="65">
+        <v>4.0369999999999998E-3</v>
+      </c>
+      <c r="M5" s="65">
+        <v>5.2919999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="G6" s="65">
+        <v>8.3299999999999997E-4</v>
+      </c>
+      <c r="H6" s="65">
+        <v>1.817E-3</v>
+      </c>
+      <c r="I6" s="65">
+        <v>4.6880000000000003E-3</v>
+      </c>
+      <c r="J6" s="65">
+        <v>2.5829999999999998E-3</v>
+      </c>
+      <c r="K6" s="65">
+        <v>3.271E-3</v>
+      </c>
+      <c r="L6" s="65">
+        <v>2.8170000000000001E-3</v>
+      </c>
+      <c r="M6" s="65">
+        <v>3.9319999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="G7" s="65">
+        <v>1.201E-3</v>
+      </c>
+      <c r="H7" s="65">
+        <v>3.8289999999999999E-3</v>
+      </c>
+      <c r="I7" s="65">
+        <v>2.5829999999999998E-3</v>
+      </c>
+      <c r="J7" s="65">
+        <v>6.2740000000000001E-3</v>
+      </c>
+      <c r="K7" s="65">
+        <v>6.4850000000000003E-3</v>
+      </c>
+      <c r="L7" s="65">
+        <v>5.4990000000000004E-3</v>
+      </c>
+      <c r="M7" s="65">
+        <v>6.4279999999999997E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="G8" s="65">
+        <v>1.578E-3</v>
+      </c>
+      <c r="H8" s="65">
+        <v>4.8479999999999999E-3</v>
+      </c>
+      <c r="I8" s="65">
+        <v>3.271E-3</v>
+      </c>
+      <c r="J8" s="65">
+        <v>6.4850000000000003E-3</v>
+      </c>
+      <c r="K8" s="65">
+        <v>1.0262E-2</v>
+      </c>
+      <c r="L8" s="65">
+        <v>6.4790000000000004E-3</v>
+      </c>
+      <c r="M8" s="65">
+        <v>8.8800000000000007E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="G9" s="65">
+        <v>1.214E-3</v>
+      </c>
+      <c r="H9" s="65">
+        <v>4.0369999999999998E-3</v>
+      </c>
+      <c r="I9" s="65">
+        <v>2.8170000000000001E-3</v>
+      </c>
+      <c r="J9" s="65">
+        <v>5.4990000000000004E-3</v>
+      </c>
+      <c r="K9" s="65">
+        <v>6.4790000000000004E-3</v>
+      </c>
+      <c r="L9" s="65">
+        <v>8.8030000000000001E-3</v>
+      </c>
+      <c r="M9" s="65">
+        <v>7.9539999999999993E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0.14285709999999999</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0.14285709999999999</v>
-      </c>
-      <c r="G2" s="19">
-        <v>0.14285709999999999</v>
-      </c>
-      <c r="H2" s="19">
-        <v>0.14285709999999999</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="N2" s="19">
-        <v>0</v>
-      </c>
-      <c r="O2" s="19">
-        <v>0.1550598</v>
-      </c>
-      <c r="P2" s="19">
-        <v>6.9933090000000003E-2</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>3.9111550000000002E-2</v>
-      </c>
-      <c r="R2" s="3">
-        <v>8.5896E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.13861399999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.28712900000000002</v>
-      </c>
-      <c r="E3" s="19">
-        <v>4.9504949999999999E-2</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0.2376238</v>
-      </c>
-      <c r="G3" s="19">
-        <v>2.9702969999999999E-2</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0.20792079999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>4.9505E-2</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.44840000000000002</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.38682</v>
-      </c>
-      <c r="N3" s="19">
-        <v>1.6959290000000001E-17</v>
-      </c>
-      <c r="O3" s="19">
-        <v>3.905688E-3</v>
-      </c>
-      <c r="P3" s="19">
-        <v>6.6797419999999996E-2</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>8.504211E-19</v>
-      </c>
-      <c r="R3" s="3">
-        <v>9.4076999999999994E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.28241500000000003</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.14297899999999999</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0.17785110000000001</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0.1187341</v>
-      </c>
-      <c r="G4" s="19">
-        <v>9.272408E-2</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0.1058735</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7.9422999999999994E-2</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.38263999999999998</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>0.1440978</v>
-      </c>
-      <c r="P4" s="19">
-        <v>4.6277020000000002E-2</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0.111097</v>
-      </c>
-      <c r="R4" s="3">
-        <v>6.5889000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.58546699999999996</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.39723000000000003</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>8.1315159999999995E-19</v>
-      </c>
-      <c r="H5" s="19">
-        <v>2.2090620000000001E-18</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1.7302999999999999E-2</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.31656000000000001</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.341227</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>0.1159631</v>
-      </c>
-      <c r="P5" s="19">
-        <v>5.0955559999999997E-2</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>0.1046309</v>
-      </c>
-      <c r="R5" s="3">
-        <v>7.0663000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="19">
-        <v>6.8519800000000006E-2</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.20937829999999999</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>3.7898300000000003E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3.4203999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>5.3935629999999998E-2</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0.14733979999999999</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1.145913E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.137265</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>6.1195459999999997E-20</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.11853130000000001</v>
-      </c>
-      <c r="G8" s="19">
-        <v>9.9783159999999996E-2</v>
-      </c>
-      <c r="H8" s="19">
-        <v>2.3148309999999998E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.10853699999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0.16697809999999999</v>
-      </c>
-      <c r="G9" s="19">
-        <v>6.411567E-2</v>
-      </c>
-      <c r="H9" s="19">
-        <v>3.1915199999999998E-2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8.6990999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.56269899999999995</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.31980399999999998</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>7.2133390000000006E-2</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1.8574839999999999E-2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2.6789E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="19">
-        <v>9.4090569999999998E-2</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0.18669459999999999</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>4.3644139999999998E-2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2.5571E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
-        <v>5.7106669999999998E-2</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.14130400000000001</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1.5915260000000001E-2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.13567399999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1.484759E-17</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.11308029999999999</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0.10052</v>
-      </c>
-      <c r="H13" s="19">
-        <v>2.917028E-2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.107229</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0.1550598</v>
-      </c>
-      <c r="G14" s="19">
-        <v>6.9933090000000003E-2</v>
-      </c>
-      <c r="H14" s="19">
-        <v>3.9111550000000002E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>8.5896E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.35450999999999999</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.41037099999999999</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19">
-        <v>2.2071139999999999E-17</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0.1032959</v>
-      </c>
-      <c r="H15" s="19">
-        <v>2.4504240000000001E-17</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.131823</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.40859000000000001</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.39757700000000001</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1.7306999999999999E-17</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1.118846E-17</v>
-      </c>
-      <c r="G16" s="19">
-        <v>8.3449019999999999E-2</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.110384</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.44840000000000002</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.38682</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1.6959290000000001E-17</v>
-      </c>
-      <c r="F17" s="19">
-        <v>3.905688E-3</v>
-      </c>
-      <c r="G17" s="19">
-        <v>6.6797419999999996E-2</v>
-      </c>
-      <c r="H17" s="19">
-        <v>8.504211E-19</v>
-      </c>
-      <c r="I17" s="3">
-        <v>9.4076999999999994E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.38263999999999998</v>
-      </c>
-      <c r="E18" s="19">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0.1440978</v>
-      </c>
-      <c r="G18" s="19">
-        <v>4.6277020000000002E-2</v>
-      </c>
-      <c r="H18" s="19">
-        <v>0.111097</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6.5889000000000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.31656000000000001</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.341227</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.1159631</v>
-      </c>
-      <c r="G19" s="19">
-        <v>5.0955559999999997E-2</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0.1046309</v>
-      </c>
-      <c r="I19" s="3">
-        <v>7.0663000000000004E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="G10" s="65">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="H10" s="65">
+        <v>5.2919999999999998E-3</v>
+      </c>
+      <c r="I10" s="65">
+        <v>3.9319999999999997E-3</v>
+      </c>
+      <c r="J10" s="65">
+        <v>6.4279999999999997E-3</v>
+      </c>
+      <c r="K10" s="65">
+        <v>8.8800000000000007E-3</v>
+      </c>
+      <c r="L10" s="65">
+        <v>7.9539999999999993E-3</v>
+      </c>
+      <c r="M10" s="65">
+        <v>1.6681000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="66"/>
+      <c r="G12" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="M12" s="67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.15506149999999999</v>
-      </c>
-      <c r="G22" s="8">
-        <v>6.993241E-2</v>
-      </c>
-      <c r="H22" s="8">
-        <v>3.9110390000000002E-2</v>
-      </c>
-      <c r="I22" s="8">
-        <v>8.5896E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.44839600000000002</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.386824</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>3.9106599999999998E-3</v>
-      </c>
-      <c r="G23" s="8">
-        <v>6.6791359999999994E-2</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1.8326830000000001E-17</v>
-      </c>
-      <c r="I23" s="8">
-        <v>9.4077999999999995E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" t="e">
-        <f>T</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.44839600000000002</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.386824</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3.9106599999999998E-3</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0.15506149999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="7">
-        <v>6.6791359999999994E-2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>6.993241E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="13" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="65">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="H13" s="65">
+        <v>1.0380000000000001E-3</v>
+      </c>
+      <c r="I13" s="65">
+        <v>8.0599999999999997E-4</v>
+      </c>
+      <c r="J13" s="65">
+        <v>1.1620000000000001E-3</v>
+      </c>
+      <c r="K13" s="65">
+        <v>1.5269999999999999E-3</v>
+      </c>
+      <c r="L13" s="65">
+        <v>1.175E-3</v>
+      </c>
+      <c r="M13" s="65">
+        <v>1.462E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="65">
+        <v>1.0380000000000001E-3</v>
+      </c>
+      <c r="H14" s="65">
+        <v>5.0289999999999996E-3</v>
+      </c>
+      <c r="I14" s="65">
+        <v>1.758E-3</v>
+      </c>
+      <c r="J14" s="65">
+        <v>3.705E-3</v>
+      </c>
+      <c r="K14" s="65">
+        <v>4.692E-3</v>
+      </c>
+      <c r="L14" s="65">
+        <v>3.9060000000000002E-3</v>
+      </c>
+      <c r="M14" s="65">
+        <v>5.1209999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="65">
+        <v>8.0599999999999997E-4</v>
+      </c>
+      <c r="H15" s="65">
+        <v>1.758E-3</v>
+      </c>
+      <c r="I15" s="65">
+        <v>4.5409999999999999E-3</v>
+      </c>
+      <c r="J15" s="65">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K15" s="65">
+        <v>3.166E-3</v>
+      </c>
+      <c r="L15" s="65">
+        <v>2.7260000000000001E-3</v>
+      </c>
+      <c r="M15" s="65">
+        <v>3.8049999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="65">
+        <v>1.1620000000000001E-3</v>
+      </c>
+      <c r="H16" s="65">
+        <v>3.705E-3</v>
+      </c>
+      <c r="I16" s="65">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J16" s="65">
+        <v>6.0769999999999999E-3</v>
+      </c>
+      <c r="K16" s="65">
+        <v>6.2760000000000003E-3</v>
+      </c>
+      <c r="L16" s="65">
+        <v>5.3220000000000003E-3</v>
+      </c>
+      <c r="M16" s="65">
+        <v>6.2199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="65">
+        <v>1.5269999999999999E-3</v>
+      </c>
+      <c r="H17" s="65">
+        <v>4.692E-3</v>
+      </c>
+      <c r="I17" s="65">
+        <v>3.166E-3</v>
+      </c>
+      <c r="J17" s="65">
+        <v>6.2760000000000003E-3</v>
+      </c>
+      <c r="K17" s="65">
+        <v>9.9360000000000004E-3</v>
+      </c>
+      <c r="L17" s="65">
+        <v>6.2700000000000004E-3</v>
+      </c>
+      <c r="M17" s="65">
+        <v>8.5939999999999992E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="7">
-        <v>1.8326830000000001E-17</v>
-      </c>
-      <c r="D35" s="7">
-        <v>3.9110390000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="G18" s="65">
+        <v>1.175E-3</v>
+      </c>
+      <c r="H18" s="65">
+        <v>3.9060000000000002E-3</v>
+      </c>
+      <c r="I18" s="65">
+        <v>2.7260000000000001E-3</v>
+      </c>
+      <c r="J18" s="65">
+        <v>5.3220000000000003E-3</v>
+      </c>
+      <c r="K18" s="65">
+        <v>6.2700000000000004E-3</v>
+      </c>
+      <c r="L18" s="65">
+        <v>8.5240000000000003E-3</v>
+      </c>
+      <c r="M18" s="65">
+        <v>7.698E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="7">
-        <v>9.4077999999999995E-2</v>
-      </c>
-      <c r="D36" s="7">
-        <v>8.5896E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="8">
-        <v>8.0296000000000006E-2</v>
-      </c>
-      <c r="D40" s="8">
-        <v>8.2679000000000002E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="8">
-        <v>0.105291</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.117965</v>
+      <c r="G19" s="65">
+        <v>1.462E-3</v>
+      </c>
+      <c r="H19" s="65">
+        <v>5.1209999999999997E-3</v>
+      </c>
+      <c r="I19" s="65">
+        <v>3.8049999999999998E-3</v>
+      </c>
+      <c r="J19" s="65">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="K19" s="65">
+        <v>8.5939999999999992E-3</v>
+      </c>
+      <c r="L19" s="65">
+        <v>7.698E-3</v>
+      </c>
+      <c r="M19" s="65">
+        <v>1.6147999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f>SQRT(G4)*2</f>
+        <v>0.10244998779892558</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="59">
+        <f>SQRT(H5)*2</f>
+        <v>0.1441804425017485</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="59">
+        <f>SQRT(I6)*2</f>
+        <v>0.13693794214898952</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="59">
+        <f>SQRT(J7)*2</f>
+        <v>0.1584171707865028</v>
+      </c>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="46"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="59">
+        <f>SQRT(K8)*2</f>
+        <v>0.20260306019406518</v>
+      </c>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="46"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="59">
+        <f>SQRT(L9)*2</f>
+        <v>0.18764860777527767</v>
+      </c>
+      <c r="M27" s="61"/>
+    </row>
+    <row r="28" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="46"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="59">
+        <f>SQRT(M10)*2</f>
+        <v>0.25830989140952387</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="46"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+    </row>
+    <row r="30" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="46"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="46"/>
+      <c r="G31" s="59">
+        <f>SQRT(G13)*2</f>
+        <v>0.10079682534683322</v>
+      </c>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+    </row>
+    <row r="32" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="46"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59">
+        <f>SQRT(H14)*2</f>
+        <v>0.14183088521193118</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+    </row>
+    <row r="33" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59">
+        <f>SQRT(I15)*2</f>
+        <v>0.13477388471065158</v>
+      </c>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+    </row>
+    <row r="34" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="59">
+        <f>SQRT(J16)*2</f>
+        <v>0.15591023058157538</v>
+      </c>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+    </row>
+    <row r="35" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="59">
+        <f>SQRT(K17)*2</f>
+        <v>0.1993589727100338</v>
+      </c>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+    </row>
+    <row r="36" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="59">
+        <f>SQRT(L18)*2</f>
+        <v>0.18465102220134066</v>
+      </c>
+      <c r="M36" s="61"/>
+    </row>
+    <row r="37" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="59">
+        <f>SQRT(M19)*2</f>
+        <v>0.25414956226600116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4097,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,10 +6032,977 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="B1:R42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="47">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="D2" s="47">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="E2" s="47">
+        <v>0.14285709999999999</v>
+      </c>
+      <c r="F2" s="47">
+        <v>0.14285709999999999</v>
+      </c>
+      <c r="G2" s="47">
+        <v>0.14285709999999999</v>
+      </c>
+      <c r="H2" s="47">
+        <v>0.14285709999999999</v>
+      </c>
+      <c r="I2" s="47">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="J2" s="60">
+        <f>SUMPRODUCT(C2:I2,$C$26:$I$26)</f>
+        <v>7.9557094159999994E-2</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0.1550598</v>
+      </c>
+      <c r="P2" s="19">
+        <v>6.9933090000000003E-2</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>3.9111550000000002E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>8.5896E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0.13861399999999999</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0.28712900000000002</v>
+      </c>
+      <c r="E3" s="47">
+        <v>4.9504949999999999E-2</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0.2376238</v>
+      </c>
+      <c r="G3" s="47">
+        <v>2.9702969999999999E-2</v>
+      </c>
+      <c r="H3" s="47">
+        <v>0.20792079999999999</v>
+      </c>
+      <c r="I3" s="47">
+        <v>4.9505E-2</v>
+      </c>
+      <c r="J3" s="60">
+        <f>SUMPRODUCT(C3:I3,$C$26:$I$26)</f>
+        <v>8.1152518361999992E-2</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.38682</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1.6959290000000001E-17</v>
+      </c>
+      <c r="O3" s="19">
+        <v>3.905688E-3</v>
+      </c>
+      <c r="P3" s="19">
+        <v>6.6797419999999996E-2</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>8.504211E-19</v>
+      </c>
+      <c r="R3" s="3">
+        <v>9.4076999999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="47">
+        <v>0.28241500000000003</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0.14297899999999999</v>
+      </c>
+      <c r="E4" s="47">
+        <v>0.17785110000000001</v>
+      </c>
+      <c r="F4" s="47">
+        <v>0.1187341</v>
+      </c>
+      <c r="G4" s="47">
+        <v>9.272408E-2</v>
+      </c>
+      <c r="H4" s="47">
+        <v>0.1058735</v>
+      </c>
+      <c r="I4" s="47">
+        <v>7.9422999999999994E-2</v>
+      </c>
+      <c r="J4" s="60">
+        <f>SUMPRODUCT(C4:I4,$C$26:$I$26)</f>
+        <v>7.6033342328000006E-2</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.38263999999999998</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0.1440978</v>
+      </c>
+      <c r="P4" s="19">
+        <v>4.6277020000000002E-2</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0.111097</v>
+      </c>
+      <c r="R4" s="3">
+        <v>6.5889000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="47">
+        <v>0.58546699999999996</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0.39723000000000003</v>
+      </c>
+      <c r="E5" s="47">
+        <v>7.0727250000000002E-19</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0</v>
+      </c>
+      <c r="G5" s="47">
+        <v>1.507719E-18</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="I5" s="47">
+        <v>1.7302999999999999E-2</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.31656000000000001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.341227</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.1159631</v>
+      </c>
+      <c r="P5" s="19">
+        <v>5.0955559999999997E-2</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0.1046309</v>
+      </c>
+      <c r="R5" s="3">
+        <v>7.0663000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.15404799999999999</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0.15187429999999999</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>2.5081579999999999E-2</v>
+      </c>
+      <c r="I6" s="47">
+        <v>1.8995999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0</v>
+      </c>
+      <c r="F7" s="47">
+        <v>5.3935629999999998E-2</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0.14733979999999999</v>
+      </c>
+      <c r="H7" s="47">
+        <v>1.145913E-2</v>
+      </c>
+      <c r="I7" s="47">
+        <v>0.137265</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="47">
+        <v>0</v>
+      </c>
+      <c r="F8" s="47">
+        <v>0.11853130000000001</v>
+      </c>
+      <c r="G8" s="47">
+        <v>9.9783159999999996E-2</v>
+      </c>
+      <c r="H8" s="47">
+        <v>2.314834E-2</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0.10853699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="47">
+        <v>9.356072E-3</v>
+      </c>
+      <c r="F9" s="47">
+        <v>0.1599604</v>
+      </c>
+      <c r="G9" s="47">
+        <v>6.4018190000000003E-2</v>
+      </c>
+      <c r="H9" s="47">
+        <v>3.0231000000000001E-2</v>
+      </c>
+      <c r="I9" s="47">
+        <v>8.6433999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="47">
+        <v>0.53916399999999998</v>
+      </c>
+      <c r="D10" s="47">
+        <v>0.31226999999999999</v>
+      </c>
+      <c r="E10" s="47">
+        <v>5.5479359999999998E-2</v>
+      </c>
+      <c r="F10" s="47">
+        <v>5.7945969999999999E-2</v>
+      </c>
+      <c r="G10" s="47">
+        <v>1.0066989999999999E-18</v>
+      </c>
+      <c r="H10" s="47">
+        <v>1.3916120000000001E-2</v>
+      </c>
+      <c r="I10" s="47">
+        <v>2.1225000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="47">
+        <v>0.16417219999999999</v>
+      </c>
+      <c r="F11" s="47">
+        <v>0.1409241</v>
+      </c>
+      <c r="G11" s="47">
+        <v>2.7689339999999999E-18</v>
+      </c>
+      <c r="H11" s="47">
+        <v>3.0923340000000001E-2</v>
+      </c>
+      <c r="I11" s="47">
+        <v>1.3979999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="47">
+        <v>2.6244349999999999E-17</v>
+      </c>
+      <c r="F12" s="47">
+        <v>5.7107709999999999E-2</v>
+      </c>
+      <c r="G12" s="47">
+        <v>0.1413027</v>
+      </c>
+      <c r="H12" s="47">
+        <v>1.5915240000000001E-2</v>
+      </c>
+      <c r="I12" s="47">
+        <v>0.13567399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="47">
+        <v>0</v>
+      </c>
+      <c r="F13" s="47">
+        <v>0.11308029999999999</v>
+      </c>
+      <c r="G13" s="47">
+        <v>0.10052</v>
+      </c>
+      <c r="H13" s="47">
+        <v>2.917028E-2</v>
+      </c>
+      <c r="I13" s="47">
+        <v>0.107229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="47">
+        <v>1.422235E-2</v>
+      </c>
+      <c r="F14" s="47">
+        <v>0.14535870000000001</v>
+      </c>
+      <c r="G14" s="47">
+        <v>6.9217000000000001E-2</v>
+      </c>
+      <c r="H14" s="47">
+        <v>3.6158940000000001E-2</v>
+      </c>
+      <c r="I14" s="47">
+        <v>8.5042999999999994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0.35451199999999999</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0.41036699999999998</v>
+      </c>
+      <c r="E15" s="47">
+        <v>1.9917979999999999E-17</v>
+      </c>
+      <c r="F15" s="47">
+        <v>1.677506E-17</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0.1032986</v>
+      </c>
+      <c r="H15" s="47">
+        <v>1.6293100000000002E-17</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0.131823</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0.40858899999999998</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0.39757799999999999</v>
+      </c>
+      <c r="E16" s="47">
+        <v>2.015557E-17</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>8.3449099999999998E-2</v>
+      </c>
+      <c r="H16" s="47">
+        <v>1.8489879999999999E-17</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0.110384</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0.44839699999999999</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0.386824</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>3.9102249999999998E-3</v>
+      </c>
+      <c r="G17" s="47">
+        <v>6.6792039999999997E-2</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>9.4076999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="47">
+        <v>0.388598</v>
+      </c>
+      <c r="E18" s="47">
+        <v>2.7742849999999999E-2</v>
+      </c>
+      <c r="F18" s="47">
+        <v>0.1427456</v>
+      </c>
+      <c r="G18" s="47">
+        <v>3.3797300000000002E-2</v>
+      </c>
+      <c r="H18" s="47">
+        <v>0.1002258</v>
+      </c>
+      <c r="I18" s="47">
+        <v>5.6890999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="47">
+        <v>0.34852</v>
+      </c>
+      <c r="D19" s="47">
+        <v>0.338258</v>
+      </c>
+      <c r="E19" s="47">
+        <v>0</v>
+      </c>
+      <c r="F19" s="47">
+        <v>0.11338330000000001</v>
+      </c>
+      <c r="G19" s="47">
+        <v>4.0483489999999997E-2</v>
+      </c>
+      <c r="H19" s="47">
+        <v>9.4313859999999999E-2</v>
+      </c>
+      <c r="I19" s="47">
+        <v>6.5042000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="70">
+        <v>2.5087999999999999E-2</v>
+      </c>
+      <c r="F20" s="70">
+        <v>0.15948799999999999</v>
+      </c>
+      <c r="G20" s="70">
+        <v>3.3910999999999997E-2</v>
+      </c>
+      <c r="H20" s="70">
+        <v>0.12634999999999999</v>
+      </c>
+      <c r="I20" s="70">
+        <v>5.5162999999999997E-2</v>
+      </c>
+      <c r="J20" s="60">
+        <f>SUMPRODUCT(C20:I20,$C$26:$I$26)</f>
+        <v>8.0128822900000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="70">
+        <v>0.30986599999999997</v>
+      </c>
+      <c r="D21" s="70">
+        <v>0.321378</v>
+      </c>
+      <c r="E21" s="70">
+        <v>1.4154E-2</v>
+      </c>
+      <c r="F21" s="70">
+        <v>0.14598900000000001</v>
+      </c>
+      <c r="G21" s="70">
+        <v>3.0948E-2</v>
+      </c>
+      <c r="H21" s="70">
+        <v>0.122627</v>
+      </c>
+      <c r="I21" s="70">
+        <v>5.5038999999999998E-2</v>
+      </c>
+      <c r="J21" s="60">
+        <f>SUMPRODUCT(C21:I21,$C$26:$I$26)</f>
+        <v>8.0408791100000016E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="8">
+        <f>C13</f>
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:I23" si="0">D13</f>
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11308029999999999</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10052</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>2.917028E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.107229</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8">
+        <f>C16</f>
+        <v>0.40858899999999998</v>
+      </c>
+      <c r="D24" s="8">
+        <f>D16</f>
+        <v>0.39757799999999999</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ref="E24:I24" si="1">E16</f>
+        <v>2.015557E-17</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="1"/>
+        <v>8.3449099999999998E-2</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8489879999999999E-17</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.110384</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>9.06E-2</v>
+      </c>
+      <c r="H26" s="9">
+        <v>8.0700000000000008E-2</v>
+      </c>
+      <c r="I26" s="9">
+        <v>9.0299999999999991E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="70">
+        <v>4.4276400000000002</v>
+      </c>
+      <c r="D27" s="70">
+        <v>6.9658119999999997</v>
+      </c>
+      <c r="E27" s="70">
+        <v>4.5439400000000001</v>
+      </c>
+      <c r="F27" s="70">
+        <v>7.1732880000000003</v>
+      </c>
+      <c r="G27" s="70">
+        <v>7.772621</v>
+      </c>
+      <c r="H27" s="70">
+        <v>7.4039900000000003</v>
+      </c>
+      <c r="I27" s="70">
+        <v>7.6345479999999997</v>
+      </c>
+      <c r="J27">
+        <f>SUMPRODUCT(C27:I27,C2:I2)</f>
+        <v>6.5602588434068991</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="e">
+        <f>T</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.44839600000000002</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.386824</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3.9106599999999998E-3</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.15506149999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6.6791359999999994E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>6.993241E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1.8326830000000001E-17</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3.9110390000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7">
+        <v>9.4077999999999995E-2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>8.5896E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="8">
+        <v>8.0296000000000006E-2</v>
+      </c>
+      <c r="D41" s="8">
+        <v>8.2679000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.105291</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.117965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="A6:M9"/>
+      <selection activeCell="E16" sqref="E16:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4593,18 +7102,959 @@
         <v>0.107229</v>
       </c>
     </row>
-    <row r="17" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>5.0707300000000004E-2</v>
+      </c>
+      <c r="F16" s="48">
+        <v>0.34852</v>
+      </c>
+      <c r="G16" s="48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>7.4243589999999998E-2</v>
+      </c>
+      <c r="F17" s="48">
+        <v>0.338258</v>
+      </c>
+      <c r="G17" s="48">
+        <v>0.388598</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>4.785615E-2</v>
+      </c>
+      <c r="F18" s="48">
+        <v>0</v>
+      </c>
+      <c r="G18" s="48">
+        <v>2.7742849999999999E-2</v>
+      </c>
       <c r="H18" s="40"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
     </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>7.4334250000000004E-2</v>
+      </c>
+      <c r="F19" s="48">
+        <v>0.11338330000000001</v>
+      </c>
+      <c r="G19" s="48">
+        <v>0.1427456</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>8.0975520000000009E-2</v>
+      </c>
+      <c r="F20" s="48">
+        <v>4.0483489999999997E-2</v>
+      </c>
+      <c r="G20" s="48">
+        <v>3.3797300000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>7.5751550000000001E-2</v>
+      </c>
+      <c r="F21" s="48">
+        <v>9.4313859999999999E-2</v>
+      </c>
+      <c r="G21" s="48">
+        <v>0.1002258</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>7.9832029999999998E-2</v>
+      </c>
+      <c r="F22" s="48">
+        <v>6.5042000000000003E-2</v>
+      </c>
+      <c r="G22" s="48">
+        <v>5.6890999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>SUMPRODUCT(F16:F22,$E$16:$E$22)</f>
+        <v>6.6829286661152801E-2</v>
+      </c>
+      <c r="G24" s="33">
+        <f>SUMPRODUCT(G16:G22,$E$16:$E$22)</f>
+        <v>6.8337026355463501E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:L26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="57">
+        <v>1</v>
+      </c>
+      <c r="F5" s="57">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G5" s="57">
+        <v>0.24</v>
+      </c>
+      <c r="H5" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="57">
+        <v>0.31</v>
+      </c>
+      <c r="J5" s="57">
+        <v>0.26</v>
+      </c>
+      <c r="K5" s="57">
+        <v>0.23</v>
+      </c>
+      <c r="L5" s="57">
+        <v>-9.4972000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="57">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F6" s="57">
+        <v>1</v>
+      </c>
+      <c r="G6" s="57">
+        <v>0.38</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0.68</v>
+      </c>
+      <c r="I6" s="57">
+        <v>0.67</v>
+      </c>
+      <c r="J6" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="57">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L6" s="57">
+        <v>-5.6154999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="57">
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="57">
+        <v>0.38</v>
+      </c>
+      <c r="G7" s="57">
+        <v>1</v>
+      </c>
+      <c r="H7" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="57">
+        <v>0.49</v>
+      </c>
+      <c r="J7" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="K7" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="L7" s="57">
+        <v>9.8351999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="57">
+        <v>0.68</v>
+      </c>
+      <c r="G8" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="57">
+        <v>1</v>
+      </c>
+      <c r="I8" s="57">
+        <v>0.83</v>
+      </c>
+      <c r="J8" s="57">
+        <v>0.76</v>
+      </c>
+      <c r="K8" s="57">
+        <v>0.64</v>
+      </c>
+      <c r="L8" s="57">
+        <v>1.9628E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="57">
+        <v>0.31</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0.67</v>
+      </c>
+      <c r="G9" s="57">
+        <v>0.49</v>
+      </c>
+      <c r="H9" s="57">
+        <v>0.83</v>
+      </c>
+      <c r="I9" s="57">
+        <v>1</v>
+      </c>
+      <c r="J9" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="K9" s="57">
+        <v>0.69</v>
+      </c>
+      <c r="L9" s="57">
+        <v>6.7670999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="57">
+        <v>0.26</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="H10" s="57">
+        <v>0.76</v>
+      </c>
+      <c r="I10" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="57">
+        <v>1</v>
+      </c>
+      <c r="K10" s="57">
+        <v>0.67</v>
+      </c>
+      <c r="L10" s="57">
+        <v>4.9597000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="57">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G11" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="H11" s="57">
+        <v>0.64</v>
+      </c>
+      <c r="I11" s="57">
+        <v>0.69</v>
+      </c>
+      <c r="J11" s="57">
+        <v>0.67</v>
+      </c>
+      <c r="K11" s="57">
+        <v>1</v>
+      </c>
+      <c r="L11" s="57">
+        <v>-4.7780000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="57">
+        <v>-9.4972000000000001E-2</v>
+      </c>
+      <c r="F12" s="57">
+        <v>-5.6154999999999997E-2</v>
+      </c>
+      <c r="G12" s="57">
+        <v>9.8351999999999995E-2</v>
+      </c>
+      <c r="H12" s="57">
+        <v>1.9628E-2</v>
+      </c>
+      <c r="I12" s="57">
+        <v>6.7670999999999995E-2</v>
+      </c>
+      <c r="J12" s="57">
+        <v>4.9597000000000002E-2</v>
+      </c>
+      <c r="K12" s="57">
+        <v>-4.7780000000000001E-3</v>
+      </c>
+      <c r="L12" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="54">
+        <v>0.10003238</v>
+      </c>
+      <c r="F14" s="54">
+        <v>0.14128425</v>
+      </c>
+      <c r="G14" s="54">
+        <v>0.13080886999999999</v>
+      </c>
+      <c r="H14" s="54">
+        <v>0.15248110000000001</v>
+      </c>
+      <c r="I14" s="54">
+        <v>0.19667797000000001</v>
+      </c>
+      <c r="J14" s="54">
+        <v>0.18176058</v>
+      </c>
+      <c r="K14" s="54">
+        <v>0.25203730000000002</v>
+      </c>
+      <c r="L14" s="54">
+        <v>8.6824999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H21" r:id="rId1" display="https://www.ncreif.org/data-products/funds/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39">
+        <v>0.29359299999999999</v>
+      </c>
+      <c r="D2" s="39">
+        <v>0.24631400000000001</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0.30474600000000002</v>
+      </c>
+      <c r="F2" s="39">
+        <v>0.31029800000000002</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0.25844400000000001</v>
+      </c>
+      <c r="H2" s="39">
+        <v>0.23180799999999999</v>
+      </c>
+      <c r="I2" s="39">
+        <v>-9.4972000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="39">
+        <v>0.29359299999999999</v>
+      </c>
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0.38045899999999999</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0.68770399999999998</v>
+      </c>
+      <c r="F3" s="39">
+        <v>0.67518500000000004</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0.60826899999999995</v>
+      </c>
+      <c r="H3" s="39">
+        <v>0.57511900000000005</v>
+      </c>
+      <c r="I3" s="39">
+        <v>-5.6154999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="39">
+        <v>0.24631400000000001</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.38045899999999999</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0.50119800000000003</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.49202600000000002</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0.45854200000000001</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0.461563</v>
+      </c>
+      <c r="I4" s="39">
+        <v>9.8351999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="39">
+        <v>0.30474600000000002</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.68770399999999998</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.50119800000000003</v>
+      </c>
+      <c r="E5" s="39">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.83678699999999995</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0.767841</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.64721300000000004</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1.9628E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="39">
+        <v>0.31029800000000002</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.67518500000000004</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.49202600000000002</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.83678699999999995</v>
+      </c>
+      <c r="F6" s="39">
+        <v>1</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0.70137799999999995</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.69326100000000002</v>
+      </c>
+      <c r="I6" s="39">
+        <v>6.7670999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="39">
+        <v>0.25844400000000001</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0.60826899999999995</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.45854200000000001</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.767841</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.70137799999999995</v>
+      </c>
+      <c r="G7" s="39">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0.67191800000000002</v>
+      </c>
+      <c r="I7" s="39">
+        <v>4.9597000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="39">
+        <v>0.23180799999999999</v>
+      </c>
+      <c r="C8" s="39">
+        <v>0.57511900000000005</v>
+      </c>
+      <c r="D8" s="39">
+        <v>0.461563</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.64721300000000004</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.69326100000000002</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0.67191800000000002</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39">
+        <v>-4.7780000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="39">
+        <v>-9.4972000000000001E-2</v>
+      </c>
+      <c r="C9" s="39">
+        <v>-5.6154999999999997E-2</v>
+      </c>
+      <c r="D9" s="39">
+        <v>9.8351999999999995E-2</v>
+      </c>
+      <c r="E9" s="39">
+        <v>1.9628E-2</v>
+      </c>
+      <c r="F9" s="39">
+        <v>6.7670999999999995E-2</v>
+      </c>
+      <c r="G9" s="39">
+        <v>4.9597000000000002E-2</v>
+      </c>
+      <c r="H9" s="39">
+        <v>-4.7780000000000001E-3</v>
+      </c>
+      <c r="I9" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="34">
+        <v>0.1008</v>
+      </c>
+      <c r="F15" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="F16" s="34">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="F17" s="34">
+        <v>4.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0.153</v>
+      </c>
+      <c r="F18" s="34">
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="34">
+        <v>0.1971</v>
+      </c>
+      <c r="F19" s="34">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.1822</v>
+      </c>
+      <c r="F20" s="34">
+        <v>7.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="34">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="F21" s="34">
+        <v>8.0299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F32" s="68">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G32" s="68">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="H32" s="68">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I32" s="68">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="J32" s="68">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="K32" s="68">
+        <v>8.0299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="68">
+        <v>0.1008</v>
+      </c>
+      <c r="F33" s="68">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="G33" s="68">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="H33" s="68">
+        <v>0.153</v>
+      </c>
+      <c r="I33" s="68">
+        <v>0.1971</v>
+      </c>
+      <c r="J33" s="68">
+        <v>0.1822</v>
+      </c>
+      <c r="K33" s="68">
+        <v>0.25240000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>